--- a/data/Contact_Recreation/LakeHorowhenuaatDomain_b671d33728.xlsx
+++ b/data/Contact_Recreation/LakeHorowhenuaatDomain_b671d33728.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -531,7 +531,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -570,7 +570,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -609,7 +609,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -648,7 +648,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -687,7 +687,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -726,7 +726,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -765,7 +765,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -804,7 +804,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -843,7 +843,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -921,7 +921,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -960,7 +960,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -999,7 +999,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">

--- a/data/Contact_Recreation/LakeHorowhenuaatDomain_b671d33728.xlsx
+++ b/data/Contact_Recreation/LakeHorowhenuaatDomain_b671d33728.xlsx
@@ -49,64 +49,64 @@
     <t>E. coli</t>
   </si>
   <si>
-    <t>2100</t>
-  </si>
-  <si>
-    <t>630</t>
-  </si>
-  <si>
-    <t>1600</t>
-  </si>
-  <si>
-    <t>580</t>
-  </si>
-  <si>
-    <t>480</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>770</t>
-  </si>
-  <si>
-    <t>1200</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>290</t>
-  </si>
-  <si>
-    <t>2700</t>
-  </si>
-  <si>
-    <t>3500</t>
-  </si>
-  <si>
-    <t>&lt;4</t>
-  </si>
-  <si>
-    <t>&gt;9700</t>
-  </si>
-  <si>
-    <t>650</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>39</t>
+    <t>2100.0</t>
+  </si>
+  <si>
+    <t>630.0</t>
+  </si>
+  <si>
+    <t>1600.0</t>
+  </si>
+  <si>
+    <t>580.0</t>
+  </si>
+  <si>
+    <t>480.0</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>770.0</t>
+  </si>
+  <si>
+    <t>1200.0</t>
+  </si>
+  <si>
+    <t>110.0</t>
+  </si>
+  <si>
+    <t>300.0</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>290.0</t>
+  </si>
+  <si>
+    <t>2700.0</t>
+  </si>
+  <si>
+    <t>3500.0</t>
+  </si>
+  <si>
+    <t>&lt;4.0</t>
+  </si>
+  <si>
+    <t>&gt;9700.0</t>
+  </si>
+  <si>
+    <t>650.0</t>
+  </si>
+  <si>
+    <t>130.0</t>
+  </si>
+  <si>
+    <t>39.0</t>
   </si>
   <si>
     <t>Science - Contact Recreation</t>
